--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1934720.880041633</v>
+        <v>1932177.763073035</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283206</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -674,10 +674,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>239.8079481415051</v>
+        <v>185.244996181402</v>
       </c>
       <c r="W2" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>191.4298910353894</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.50698443736408</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183511</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415051</v>
+        <v>195.2645777562335</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415051</v>
+        <v>217.6858695213718</v>
       </c>
       <c r="W4" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>138.688964287041</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>290.2905114143469</v>
       </c>
       <c r="E5" t="n">
-        <v>290.2905114143468</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2905114143468</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>290.2905114143469</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157313</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1408101525697</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>85.39774262201327</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>282.0953806412329</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>290.2905114143469</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>95.41232349639149</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
-        <v>57.89966641735457</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.62175729194124</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441976</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>8.635602219376846</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>145.4887626273892</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>199.6452357812547</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.50612826256553</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>21.21812042899047</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754375</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>55.52079624060384</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892451</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826188922</v>
       </c>
       <c r="G16" t="n">
-        <v>126.926382450742</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.0162797694411</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184363</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531716</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>136.7593194687125</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174138</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756158</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365999</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819445</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217881</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>65.44930784063902</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365893</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3080,10 +3080,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>90.14863908058143</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890358</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358519</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710092</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986366</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8253826161825736</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611595375</v>
       </c>
     </row>
     <row r="41">
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057049</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,10 +3983,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,10 +4144,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.74133133758952</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609307</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.17751432369236</v>
+        <v>401.1007355715662</v>
       </c>
       <c r="C2" t="n">
-        <v>39.17751432369236</v>
+        <v>401.1007355715662</v>
       </c>
       <c r="D2" t="n">
-        <v>39.17751432369236</v>
+        <v>401.1007355715662</v>
       </c>
       <c r="E2" t="n">
-        <v>39.17751432369236</v>
+        <v>401.1007355715662</v>
       </c>
       <c r="F2" t="n">
-        <v>32.2320135744889</v>
+        <v>394.1552348223627</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132041</v>
+        <v>381.1078570991942</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132041</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470428</v>
+        <v>40.4188858447036</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192966</v>
+        <v>122.9820404192958</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605499</v>
+        <v>262.3106962605486</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859572</v>
+        <v>449.0101090859559</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779394</v>
+        <v>643.3443219779382</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948989</v>
+        <v>813.5133472948976</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444253</v>
+        <v>924.2476725444239</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660203</v>
+        <v>959.231792566019</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660191</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660203</v>
+        <v>803.0167550628471</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660203</v>
+        <v>588.2168933305582</v>
       </c>
       <c r="U2" t="n">
-        <v>717.0015419180354</v>
+        <v>588.2168933305582</v>
       </c>
       <c r="V2" t="n">
-        <v>474.7712912700505</v>
+        <v>401.1007355715662</v>
       </c>
       <c r="W2" t="n">
-        <v>232.5410406220655</v>
+        <v>401.1007355715662</v>
       </c>
       <c r="X2" t="n">
-        <v>39.17751432369236</v>
+        <v>401.1007355715662</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.17751432369236</v>
+        <v>401.1007355715662</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.74724639411241</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="C3" t="n">
-        <v>24.74724639411241</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="D3" t="n">
-        <v>24.74724639411241</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="E3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="J3" t="n">
-        <v>85.3014154816636</v>
+        <v>85.3014154816628</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450206</v>
+        <v>152.9092351450197</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607145</v>
+        <v>290.1388331607136</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153192</v>
+        <v>469.6361695153183</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679839</v>
+        <v>668.2929111679829</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367445</v>
+        <v>827.8052238367434</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640434</v>
+        <v>936.4948513640421</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660191</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682071</v>
+        <v>959.2317925660191</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682071</v>
+        <v>809.7650034286538</v>
       </c>
       <c r="T3" t="n">
-        <v>938.1198929682071</v>
+        <v>612.7757075887414</v>
       </c>
       <c r="U3" t="n">
-        <v>709.9811054793729</v>
+        <v>384.6369200999072</v>
       </c>
       <c r="V3" t="n">
-        <v>474.8289972476302</v>
+        <v>384.6369200999072</v>
       </c>
       <c r="W3" t="n">
-        <v>232.5987465996452</v>
+        <v>187.3999728713884</v>
       </c>
       <c r="X3" t="n">
-        <v>24.74724639411241</v>
+        <v>187.3999728713884</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.74724639411241</v>
+        <v>187.3999728713884</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>334.6814283538474</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="C4" t="n">
-        <v>334.6814283538474</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="D4" t="n">
-        <v>334.6814283538474</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="E4" t="n">
-        <v>334.6814283538474</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="F4" t="n">
-        <v>187.791480855937</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="G4" t="n">
-        <v>19.18463585132041</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="K4" t="n">
         <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>245.1780356031026</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669865</v>
+        <v>450.4476363223405</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030908</v>
+        <v>656.2710011584447</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470447</v>
+        <v>830.3658965470436</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456604</v>
+        <v>955.8134731456591</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660191</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660203</v>
+        <v>828.7538312854217</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660203</v>
+        <v>621.3135465378271</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660203</v>
+        <v>621.3135465378271</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660203</v>
+        <v>621.3135465378271</v>
       </c>
       <c r="V4" t="n">
-        <v>717.0015419180354</v>
+        <v>401.4288298495727</v>
       </c>
       <c r="W4" t="n">
-        <v>474.7712912700505</v>
+        <v>401.4288298495727</v>
       </c>
       <c r="X4" t="n">
-        <v>334.6814283538474</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="Y4" t="n">
-        <v>334.6814283538474</v>
+        <v>173.4392789515553</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>622.5396307141521</v>
+        <v>629.4851314633557</v>
       </c>
       <c r="C5" t="n">
-        <v>622.5396307141521</v>
+        <v>629.4851314633557</v>
       </c>
       <c r="D5" t="n">
-        <v>622.5396307141521</v>
+        <v>336.2623926609851</v>
       </c>
       <c r="E5" t="n">
-        <v>329.3168919117815</v>
+        <v>336.2623926609851</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941102</v>
+        <v>329.3168919117817</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314774</v>
+        <v>316.4459797155184</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314774</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314774</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951947</v>
+        <v>59.1367338295197</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444953</v>
+        <v>163.7002683444956</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084635</v>
+        <v>330.322340908464</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162861</v>
+        <v>547.3909387162865</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537042</v>
+        <v>772.5857417537045</v>
       </c>
       <c r="O5" t="n">
-        <v>971.895547241691</v>
+        <v>971.8955472416912</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171412</v>
+        <v>1107.500854171413</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657387</v>
+        <v>1008.968216348568</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657387</v>
+        <v>1008.968216348568</v>
       </c>
       <c r="U5" t="n">
-        <v>907.4844596446903</v>
+        <v>1008.968216348568</v>
       </c>
       <c r="V5" t="n">
-        <v>907.4844596446903</v>
+        <v>922.7078702657263</v>
       </c>
       <c r="W5" t="n">
-        <v>907.4844596446903</v>
+        <v>922.7078702657263</v>
       </c>
       <c r="X5" t="n">
-        <v>622.5396307141521</v>
+        <v>922.7078702657263</v>
       </c>
       <c r="Y5" t="n">
-        <v>622.5396307141521</v>
+        <v>629.4851314633557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>197.6762701942748</v>
+        <v>119.5993252529371</v>
       </c>
       <c r="C6" t="n">
-        <v>23.22324091314774</v>
+        <v>119.5993252529371</v>
       </c>
       <c r="D6" t="n">
-        <v>23.22324091314774</v>
+        <v>119.5993252529371</v>
       </c>
       <c r="E6" t="n">
-        <v>23.22324091314774</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314774</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314774</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314774</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314774</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508927</v>
+        <v>25.79522430508931</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063293</v>
+        <v>108.3459783063294</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119409</v>
+        <v>265.668195611941</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702532</v>
+        <v>468.6126709702535</v>
       </c>
       <c r="N6" t="n">
-        <v>691.337127626914</v>
+        <v>691.3371276269143</v>
       </c>
       <c r="O6" t="n">
-        <v>978.7247339271173</v>
+        <v>978.7247339271177</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313227</v>
+        <v>1126.612649313228</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="R6" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="S6" t="n">
-        <v>1161.162045657387</v>
+        <v>1013.449017956134</v>
       </c>
       <c r="T6" t="n">
-        <v>1102.677534124706</v>
+        <v>816.8402904184143</v>
       </c>
       <c r="U6" t="n">
-        <v>1102.677534124706</v>
+        <v>816.8402904184143</v>
       </c>
       <c r="V6" t="n">
-        <v>867.5254258929631</v>
+        <v>581.6881821866716</v>
       </c>
       <c r="W6" t="n">
-        <v>613.2880691647615</v>
+        <v>327.45082545847</v>
       </c>
       <c r="X6" t="n">
-        <v>405.4365689592287</v>
+        <v>119.5993252529371</v>
       </c>
       <c r="Y6" t="n">
-        <v>197.6762701942748</v>
+        <v>119.5993252529371</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>637.0791043336939</v>
+        <v>266.8972109234039</v>
       </c>
       <c r="C7" t="n">
-        <v>468.142921405787</v>
+        <v>266.8972109234039</v>
       </c>
       <c r="D7" t="n">
-        <v>318.0262819934512</v>
+        <v>116.7805715110682</v>
       </c>
       <c r="E7" t="n">
-        <v>170.1131884110581</v>
+        <v>116.7805715110682</v>
       </c>
       <c r="F7" t="n">
-        <v>23.22324091314774</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="G7" t="n">
-        <v>23.22324091314774</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314774</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314774</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314774</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279148</v>
+        <v>133.2846894279149</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993042</v>
+        <v>329.6518852993043</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276993</v>
+        <v>547.0826837276994</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730504</v>
+        <v>764.7780801730505</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967867</v>
+        <v>949.8387182967869</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195908</v>
+        <v>1084.669382195909</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899864</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899864</v>
+        <v>967.6652614208772</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899864</v>
+        <v>967.6652614208772</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899864</v>
+        <v>742.3742782728209</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899864</v>
+        <v>742.3742782728209</v>
       </c>
       <c r="V7" t="n">
-        <v>1094.584064899864</v>
+        <v>487.6897900669341</v>
       </c>
       <c r="W7" t="n">
-        <v>1085.861234375241</v>
+        <v>487.6897900669341</v>
       </c>
       <c r="X7" t="n">
-        <v>857.871683477224</v>
+        <v>487.6897900669341</v>
       </c>
       <c r="Y7" t="n">
-        <v>637.0791043336939</v>
+        <v>266.8972109234039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1768.949738926588</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C8" t="n">
-        <v>1768.949738926588</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>1410.684040319838</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>1024.895787721594</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>613.9098829319862</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>198.2051326562751</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926588</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1768.949738926588</v>
+        <v>1674.463969937836</v>
       </c>
       <c r="Y8" t="n">
-        <v>1768.949738926588</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735154</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049882</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.10498716421</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761156</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937319</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292608</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2546.853055059249</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4960,52 +4960,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074502</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074502</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074502</v>
+        <v>1092.823040066908</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074502</v>
+        <v>838.1385518610207</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037541</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139524</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959934</v>
+        <v>548.7213818240601</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>695.50206557031</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>695.50206557031</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>545.3854261579743</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101285</v>
+        <v>397.4723325755812</v>
       </c>
       <c r="F13" t="n">
-        <v>149.8982754122182</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>149.8982754122182</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876675</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>261.8464821474248</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277355</v>
+        <v>113.9333885650317</v>
       </c>
       <c r="F16" t="n">
-        <v>363.7369613277355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5446,40 +5446,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.1522880254209</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>493.2161050975141</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075802</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273905</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>451.6888124356586</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2125.967522499092</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.207807637403</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6206,61 +6206,61 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524083</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868281</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662395</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277377</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297865</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091978</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.294714055017</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163157</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134698</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,19 +6695,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6728,10 +6728,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273906</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1872.470231673185</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597535</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474178</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
         <v>261.0127623330919</v>
@@ -7321,13 +7321,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,31 +7424,31 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591808</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7643,19 +7643,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>538.7363435406111</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797189</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782974</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038361</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797763</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2404.800122633203</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S46" t="n">
-        <v>2221.945288288107</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U46" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V46" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W46" t="n">
-        <v>1169.166938412398</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>941.1773875143809</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>720.3848083708508</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>73.01783107116394</v>
+        <v>73.0178310711632</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>101.9822523045384</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>102.5492171288674</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.7423662450679</v>
+        <v>54.74236624506787</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>106.9273095076491</v>
+        <v>106.9273095076492</v>
       </c>
       <c r="P6" t="n">
-        <v>21.74494733836713</v>
+        <v>21.74494733836718</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515065</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>36.58048154589929</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435538749</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>84.77391660562004</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012621</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.421048022933</v>
+        <v>125.505489761042</v>
       </c>
       <c r="G16" t="n">
-        <v>38.5977558415268</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.8157004124962</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472555</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761409</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>80.64613085857576</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187165</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516725</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143904</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>220.7351665486051</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922759</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685096</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.1260136526042</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.6085800303866</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404994</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333223</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,10 +26032,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>24.63391537253214</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404979</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>878910.0450361032</v>
+        <v>878910.0450361031</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>886176.5926598854</v>
+        <v>886176.5926598856</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859702.8089747526</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859702.8089747526</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800895</v>
+        <v>652246.4444800892</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210962</v>
+        <v>55881.32342210997</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276257</v>
+        <v>363279.8866276233</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.3107835359</v>
+        <v>62744.31078353591</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440474</v>
+        <v>12992.59634440486</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.3399166626</v>
+        <v>88656.33991666246</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060263</v>
+        <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
         <v>246054.6603431037</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828186</v>
+        <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,28 +26433,28 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683034</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683034</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683034</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683036</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683031</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437332</v>
+        <v>61145.7022343733</v>
       </c>
       <c r="C5" t="n">
         <v>65162.40123302706</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-399725.7153154902</v>
+        <v>-399725.7153154901</v>
       </c>
       <c r="C6" t="n">
-        <v>207630.8539067583</v>
+        <v>207630.8539067578</v>
       </c>
       <c r="D6" t="n">
-        <v>-25439.51414529016</v>
+        <v>-25439.51414528815</v>
       </c>
       <c r="E6" t="n">
-        <v>-56602.21581227712</v>
+        <v>-56636.95373771446</v>
       </c>
       <c r="F6" t="n">
-        <v>450883.225812267</v>
+        <v>450848.4878868314</v>
       </c>
       <c r="G6" t="n">
-        <v>450883.2258122669</v>
+        <v>450848.4878868312</v>
       </c>
       <c r="H6" t="n">
-        <v>450883.225812267</v>
+        <v>450848.4878868312</v>
       </c>
       <c r="I6" t="n">
-        <v>450883.2258122671</v>
+        <v>450848.4878868312</v>
       </c>
       <c r="J6" t="n">
-        <v>388138.9150287309</v>
+        <v>388104.1771032953</v>
       </c>
       <c r="K6" t="n">
-        <v>437890.6294678624</v>
+        <v>437855.8915424267</v>
       </c>
       <c r="L6" t="n">
-        <v>362226.8858956046</v>
+        <v>362192.147970169</v>
       </c>
       <c r="M6" t="n">
-        <v>318275.9320833404</v>
+        <v>318241.1941579048</v>
       </c>
       <c r="N6" t="n">
-        <v>450883.2258122672</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="O6" t="n">
-        <v>450883.2258122671</v>
+        <v>450848.4878868314</v>
       </c>
       <c r="P6" t="n">
-        <v>450883.2258122671</v>
+        <v>450848.4878868313</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575583</v>
+        <v>636.9329421575584</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143468</v>
+        <v>290.2905114143469</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26811,22 +26811,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.965690693885681e-14</v>
+        <v>-2.962624854435923e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949332</v>
+        <v>43.45684181949355</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599833</v>
+        <v>297.1319499599807</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284166</v>
+        <v>50.48256327284213</v>
       </c>
       <c r="D4" t="n">
-        <v>350.294320685692</v>
+        <v>350.2943206856918</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,10 +27036,10 @@
         <v>239.807948141505</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284175</v>
+        <v>50.48256327284213</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856925</v>
+        <v>350.2943206856919</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996094</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284166</v>
+        <v>50.48256327284213</v>
       </c>
       <c r="L4" t="n">
-        <v>350.294320685692</v>
+        <v>350.2943206856918</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>75.23293593371079</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079555</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>87.94431032862983</v>
+        <v>142.5072622887329</v>
       </c>
       <c r="W2" t="n">
-        <v>109.4330205759079</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>178.3012096430796</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>152.1380960180369</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183512</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941453</v>
+        <v>56.43040540468607</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176901</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
@@ -27594,13 +27594,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232292</v>
+        <v>34.45177380245616</v>
       </c>
       <c r="W4" t="n">
-        <v>46.71505019508592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>87.02069110199614</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>64.39253020633606</v>
       </c>
       <c r="E5" t="n">
-        <v>91.639858657915</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>116.5855343273647</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735718</v>
+        <v>22.96121735922492</v>
       </c>
       <c r="I5" t="n">
         <v>111.7608855401375</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157313</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>242.3545158481217</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>87.63572003723618</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>95.94742724170669</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>62.23275695900945</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>99.00406368337435</v>
       </c>
       <c r="I6" t="n">
-        <v>42.2275423237091</v>
+        <v>42.22754232370909</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790352</v>
+        <v>15.0972423679035</v>
       </c>
       <c r="S6" t="n">
-        <v>146.235897424241</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>136.7429738449878</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8512500608582</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>52.79929073099001</v>
       </c>
       <c r="G7" t="n">
         <v>166.8424117578468</v>
@@ -27795,7 +27795,7 @@
         <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340508</v>
+        <v>12.15545075340506</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441977</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0380733165757</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>277.8873961172142</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>155.529789935016</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>170.0858648972143</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.3258519193718</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>265.0090336922102</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-3.150052318599543e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-8.115210091221213e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29493,7 +29493,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-6.162671493274316e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -29730,7 +29730,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.315978244181473e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -31045,22 +31045,22 @@
         <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651557</v>
       </c>
       <c r="J2" t="n">
         <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>303.486976877902</v>
       </c>
       <c r="L2" t="n">
         <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074823</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359669</v>
       </c>
       <c r="O2" t="n">
         <v>401.9861157822518</v>
@@ -31072,10 +31072,10 @@
         <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810515</v>
       </c>
       <c r="T2" t="n">
         <v>10.44398644916534</v>
@@ -31124,7 +31124,7 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182839</v>
       </c>
       <c r="J3" t="n">
         <v>120.6044214847383</v>
@@ -31133,16 +31133,16 @@
         <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512821</v>
       </c>
       <c r="M3" t="n">
         <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900652</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947076</v>
       </c>
       <c r="P3" t="n">
         <v>243.7619099671573</v>
@@ -31151,16 +31151,16 @@
         <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080801</v>
       </c>
       <c r="S3" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308315</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897147</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,25 +31200,25 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207013</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784129</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490376</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
         <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676926</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
         <v>151.2683017714137</v>
@@ -31227,19 +31227,19 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104779</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937816</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522793</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390808</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834403</v>
+        <v>2.560534440834404</v>
       </c>
       <c r="H5" t="n">
         <v>26.22307334219534</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026842</v>
+        <v>98.71500403026845</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977691</v>
+        <v>217.3221599977692</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782895</v>
+        <v>325.7095828782896</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719754</v>
+        <v>404.0715387719755</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341642</v>
+        <v>449.6074431341643</v>
       </c>
       <c r="N5" t="n">
-        <v>456.882561614185</v>
+        <v>456.8825616141851</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681379</v>
+        <v>431.421247268138</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600385</v>
+        <v>368.2080532600386</v>
       </c>
       <c r="Q5" t="n">
         <v>276.5089135976564</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690642</v>
+        <v>160.8431715690643</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051402</v>
+        <v>58.34817857051403</v>
       </c>
       <c r="T5" t="n">
         <v>11.20873951475261</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772861</v>
+        <v>1.370006705772862</v>
       </c>
       <c r="H6" t="n">
         <v>13.23138055312211</v>
@@ -31367,37 +31367,37 @@
         <v>129.4355896888299</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756115</v>
+        <v>221.2260389756116</v>
       </c>
       <c r="L6" t="n">
         <v>297.4657103916031</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758692</v>
+        <v>347.1284534758693</v>
       </c>
       <c r="N6" t="n">
         <v>356.315910726425</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511421</v>
+        <v>325.9594463511422</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892054</v>
+        <v>261.6111927892055</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316375</v>
+        <v>174.8801542316376</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473961</v>
+        <v>85.06059178473963</v>
       </c>
       <c r="S6" t="n">
         <v>25.44727367959677</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479206</v>
+        <v>5.522088432479207</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663564</v>
+        <v>0.09013202011663565</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,13 +31437,13 @@
         <v>1.14856760061199</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180479</v>
+        <v>10.2118101218048</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749513</v>
+        <v>34.54056020749514</v>
       </c>
       <c r="J7" t="n">
-        <v>81.2037293632677</v>
+        <v>81.20372936326771</v>
       </c>
       <c r="K7" t="n">
         <v>133.4426721438294</v>
@@ -31464,19 +31464,19 @@
         <v>138.9140305321992</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.1768742657913</v>
+        <v>96.17687426579131</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297183</v>
+        <v>51.64377593297185</v>
       </c>
       <c r="S7" t="n">
-        <v>20.0164008215744</v>
+        <v>20.01640082157441</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705775</v>
+        <v>4.907516111705776</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156317</v>
+        <v>0.06264914185156319</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32573,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,16 +32783,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -32810,7 +32810,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>169.6252075171348</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,19 +33020,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33494,7 +33494,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,22 +33503,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817577</v>
@@ -33731,34 +33731,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>169.6252075171348</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>162.5000833330452</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,34 +34442,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>21.44873736705378</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>83.39712583292146</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>140.7360160012657</v>
       </c>
       <c r="M2" t="n">
         <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>196.297184739376</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>171.887904360565</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>111.8528537874004</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>35.33749497130808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66.78462588923554</v>
+        <v>66.78462588923477</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268384</v>
+        <v>68.29072693268378</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>138.6157555714079</v>
       </c>
       <c r="M3" t="n">
         <v>181.310440762227</v>
@@ -34793,10 +34793,10 @@
         <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>109.787502552827</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.9666072747242</v>
+        <v>22.96660727472414</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,22 +34860,22 @@
         <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>126.2075456122954</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295332</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>115.3609804484383</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
         <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353401</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108283</v>
+        <v>36.27625547108289</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333089</v>
+        <v>105.619731833309</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019882</v>
+        <v>168.3051238019883</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068915</v>
+        <v>219.2612099068916</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175941</v>
+        <v>227.4694980175942</v>
       </c>
       <c r="O5" t="n">
         <v>201.3230358464512</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022163157</v>
+        <v>2.597963022163185</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125255</v>
+        <v>83.38460000125261</v>
       </c>
       <c r="L6" t="n">
         <v>158.9113306117289</v>
@@ -35027,13 +35027,13 @@
         <v>224.9741986430917</v>
       </c>
       <c r="O6" t="n">
-        <v>290.2905114143468</v>
+        <v>290.2905114143469</v>
       </c>
       <c r="P6" t="n">
-        <v>149.3817327132423</v>
+        <v>149.3817327132424</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561602</v>
+        <v>34.89838014561604</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179465</v>
+        <v>111.1731803179466</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003933</v>
+        <v>198.3507029003934</v>
       </c>
       <c r="M7" t="n">
         <v>219.627069119591</v>
@@ -35112,7 +35112,7 @@
         <v>136.1925897970927</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409691</v>
+        <v>10.01483101409693</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560642</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750397</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.64270034434938</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899059</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36689,13 +36689,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,7 +36926,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789214</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>23.94570355317107</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>510.7887951929326</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295511</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38193,7 +38193,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
